--- a/results/Preliminaries-Usa.xlsx
+++ b/results/Preliminaries-Usa.xlsx
@@ -77,13 +77,13 @@
     <t>2020</t>
   </si>
   <si>
-    <t>Dem</t>
+    <t>Dem - Democratic Party (Democratic Party, Dem)</t>
   </si>
   <si>
-    <t>Oth</t>
+    <t>Other - Other</t>
   </si>
   <si>
-    <t>Rep</t>
+    <t>Rep - Republican Party (Republican Party, Rep)</t>
   </si>
   <si>
     <t>Key</t>
@@ -104,16 +104,16 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>Dem+Oth</t>
+    <t>Dem - Democratic Party (Democratic Party, Dem)+Other - Other</t>
   </si>
   <si>
-    <t>Dem+Rep</t>
+    <t>Dem - Democratic Party (Democratic Party, Dem)+Rep - Republican Party (Republican Party, Rep)</t>
   </si>
   <si>
-    <t>Oth+Rep</t>
+    <t>Other - Other+Rep - Republican Party (Republican Party, Rep)</t>
   </si>
   <si>
-    <t>Dem+Oth+Rep</t>
+    <t>Dem - Democratic Party (Democratic Party, Dem)+Other - Other+Rep - Republican Party (Republican Party, Rep)</t>
   </si>
 </sst>
 </file>
